--- a/ModSim_303/ModSim_2025_01_T4_303/Problema #2 (NETLOGO)/Resultados Problema #2 (NETLOGO).xlsx
+++ b/ModSim_303/ModSim_2025_01_T4_303/Problema #2 (NETLOGO)/Resultados Problema #2 (NETLOGO).xlsx
@@ -434,11 +434,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="631531898"/>
-        <c:axId val="336090452"/>
+        <c:axId val="1728717480"/>
+        <c:axId val="285796636"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="631531898"/>
+        <c:axId val="1728717480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,10 +490,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336090452"/>
+        <c:crossAx val="285796636"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336090452"/>
+        <c:axId val="285796636"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,7 +557,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631531898"/>
+        <c:crossAx val="1728717480"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -697,11 +697,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1174813373"/>
-        <c:axId val="296984214"/>
+        <c:axId val="1994515873"/>
+        <c:axId val="847297681"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1174813373"/>
+        <c:axId val="1994515873"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,10 +753,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296984214"/>
+        <c:crossAx val="847297681"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296984214"/>
+        <c:axId val="847297681"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,7 +820,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1174813373"/>
+        <c:crossAx val="1994515873"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -960,11 +960,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1127412472"/>
-        <c:axId val="458009322"/>
+        <c:axId val="330136236"/>
+        <c:axId val="723722021"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1127412472"/>
+        <c:axId val="330136236"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,10 +1016,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458009322"/>
+        <c:crossAx val="723722021"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="458009322"/>
+        <c:axId val="723722021"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1083,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1127412472"/>
+        <c:crossAx val="330136236"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1223,11 +1223,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1048412697"/>
-        <c:axId val="117840087"/>
+        <c:axId val="1093287060"/>
+        <c:axId val="275686889"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1048412697"/>
+        <c:axId val="1093287060"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,10 +1279,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117840087"/>
+        <c:crossAx val="275686889"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117840087"/>
+        <c:axId val="275686889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1346,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1048412697"/>
+        <c:crossAx val="1093287060"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1486,11 +1486,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1165176503"/>
-        <c:axId val="1767407592"/>
+        <c:axId val="1890776991"/>
+        <c:axId val="1502886592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1165176503"/>
+        <c:axId val="1890776991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,10 +1542,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1767407592"/>
+        <c:crossAx val="1502886592"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1767407592"/>
+        <c:axId val="1502886592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,7 +1609,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1165176503"/>
+        <c:crossAx val="1890776991"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
